--- a/STOCK UTN/2023/06 JUNI/12 JUNI - 17 JUNI 2023.xlsx
+++ b/STOCK UTN/2023/06 JUNI/12 JUNI - 17 JUNI 2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13485" windowHeight="8190" tabRatio="803" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JK KENKO" sheetId="1" r:id="rId1"/>
@@ -11479,8 +11479,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A82" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView view="pageLayout" topLeftCell="A72" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -12909,8 +12909,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C2301"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2276" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView view="pageLayout" topLeftCell="A1513" zoomScale="70" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A1528" sqref="A1528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13183,7 +13183,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="31" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
-        <v>TANGGAL : 12 JUNI - 17 JUNI 2023</v>
+        <v>TANGGAL : KELUAR 06</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -38501,8 +38501,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F848"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A823" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E840" sqref="E840"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
